--- a/17_TwigFarm/DB_Extract/한국하천지명사전_1월_7일.xlsx
+++ b/17_TwigFarm/DB_Extract/한국하천지명사전_1월_7일.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haley/Desktop/Git/TIL/17_TwigFarm/DB_Extract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65303C8-7D07-F442-8F74-F1A61DE6249F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8AC7F1-B5B1-7F4F-AA5A-AEE158E84B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13852,7 +13852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
